--- a/JP/9_あとがき.xlsx
+++ b/JP/9_あとがき.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C50BC3-CFFB-4F69-BC3A-A19DD7B7610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>夜明けのソナチネ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,12 +722,16 @@
     <t>テンポ（個人の感じによっての数値化、数字高いほどテンションが高い：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>本ページ内容終了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +844,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -927,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -966,6 +979,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -985,7 +1001,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1024,7 +1040,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1149,7 +1164,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-419E-4C89-B9EA-C4FE745C0356}"/>
             </c:ext>
@@ -1449,7 +1464,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1496,7 +1511,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1599,7 +1613,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1075-4280-B01F-C2D0A0FE9EA7}"/>
             </c:ext>
@@ -3030,7 +3044,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3080,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3088,7 +3102,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3163,6 +3177,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3198,6 +3229,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3373,27 +3421,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
     <col min="5" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="12.25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3402,12 +3450,12 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3420,7 +3468,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>96</v>
       </c>
@@ -3431,7 +3479,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
@@ -3439,77 +3487,77 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3518,7 +3566,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
@@ -3526,129 +3574,129 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G25" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C40" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D41" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E42" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E43" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E49" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D50" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
         <v>37</v>
       </c>
@@ -3657,23 +3705,23 @@
       </c>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I54" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D58" s="3" t="s">
         <v>39</v>
       </c>
@@ -3681,7 +3729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D59" s="3" t="s">
         <v>40</v>
       </c>
@@ -3689,7 +3737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D61" s="3" t="s">
         <v>99</v>
       </c>
@@ -3697,83 +3745,83 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D64" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E65" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E66" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C68" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D69" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D70" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D71" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E72" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D74" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D76" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D78" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E79" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>68</v>
       </c>
@@ -3782,32 +3830,32 @@
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C86" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C92" s="3" t="s">
         <v>69</v>
       </c>
@@ -3817,24 +3865,24 @@
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E93" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F94" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F96" s="6" t="s">
         <v>83</v>
       </c>
@@ -3842,7 +3890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F97" s="11">
         <v>0</v>
       </c>
@@ -3860,7 +3908,7 @@
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
     </row>
-    <row r="98" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F98" s="11">
         <v>1.5277777777777777E-2</v>
       </c>
@@ -3878,7 +3926,7 @@
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
     </row>
-    <row r="99" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F99" s="11">
         <v>2.9166666666666664E-2</v>
       </c>
@@ -3896,7 +3944,7 @@
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
     </row>
-    <row r="100" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F100" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3914,7 +3962,7 @@
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
     </row>
-    <row r="101" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F101" s="11">
         <v>5.4166666666666669E-2</v>
       </c>
@@ -3932,7 +3980,7 @@
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
     </row>
-    <row r="102" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F102" s="11">
         <v>6.9444444444444434E-2</v>
       </c>
@@ -3950,7 +3998,7 @@
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
     </row>
-    <row r="103" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F103" s="11">
         <v>8.1944444444444445E-2</v>
       </c>
@@ -3968,7 +4016,7 @@
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
     </row>
-    <row r="104" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F104" s="11">
         <v>9.4444444444444442E-2</v>
       </c>
@@ -3986,7 +4034,7 @@
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
     </row>
-    <row r="105" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F105" s="11">
         <v>0.1076388888888889</v>
       </c>
@@ -4004,7 +4052,7 @@
       <c r="O105" s="18"/>
       <c r="P105" s="18"/>
     </row>
-    <row r="106" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F106" s="11">
         <v>0.12083333333333333</v>
       </c>
@@ -4022,7 +4070,7 @@
       <c r="O106" s="18"/>
       <c r="P106" s="18"/>
     </row>
-    <row r="107" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F107" s="11">
         <v>0.13263888888888889</v>
       </c>
@@ -4040,7 +4088,7 @@
       <c r="O107" s="18"/>
       <c r="P107" s="18"/>
     </row>
-    <row r="108" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F108" s="11">
         <v>0.14652777777777778</v>
       </c>
@@ -4058,7 +4106,7 @@
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
     </row>
-    <row r="109" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F109" s="11">
         <v>0.15902777777777777</v>
       </c>
@@ -4076,7 +4124,7 @@
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
     </row>
-    <row r="110" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F110" s="11">
         <v>0.17152777777777775</v>
       </c>
@@ -4094,30 +4142,30 @@
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
     </row>
-    <row r="111" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F111" s="11">
         <v>0.18680555555555556</v>
       </c>
       <c r="G111"/>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113" s="21" t="s">
         <v>95</v>
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F115" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F117" s="6" t="s">
         <v>83</v>
       </c>
@@ -4125,7 +4173,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F118" s="22">
         <v>0</v>
       </c>
@@ -4143,7 +4191,7 @@
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F119" s="22">
         <v>2.2916666666666669E-2</v>
       </c>
@@ -4161,7 +4209,7 @@
       <c r="O119" s="18"/>
       <c r="P119" s="18"/>
     </row>
-    <row r="120" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F120" s="22">
         <v>3.7499999999999999E-2</v>
       </c>
@@ -4179,7 +4227,7 @@
       <c r="O120" s="18"/>
       <c r="P120" s="18"/>
     </row>
-    <row r="121" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F121" s="22">
         <v>5.4166666666666669E-2</v>
       </c>
@@ -4197,7 +4245,7 @@
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
     </row>
-    <row r="122" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F122" s="22">
         <v>7.013888888888889E-2</v>
       </c>
@@ -4215,7 +4263,7 @@
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F123" s="22">
         <v>9.2361111111111116E-2</v>
       </c>
@@ -4233,7 +4281,7 @@
       <c r="O123" s="18"/>
       <c r="P123" s="18"/>
     </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F124" s="22">
         <v>0.10694444444444444</v>
       </c>
@@ -4251,7 +4299,7 @@
       <c r="O124" s="18"/>
       <c r="P124" s="18"/>
     </row>
-    <row r="125" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F125" s="22">
         <v>0.12291666666666667</v>
       </c>
@@ -4269,7 +4317,7 @@
       <c r="O125" s="18"/>
       <c r="P125" s="18"/>
     </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F126" s="22">
         <v>0.13749999999999998</v>
       </c>
@@ -4287,7 +4335,7 @@
       <c r="O126" s="18"/>
       <c r="P126" s="18"/>
     </row>
-    <row r="127" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F127" s="22">
         <v>0.15833333333333333</v>
       </c>
@@ -4305,7 +4353,7 @@
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
     </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
       <c r="I128" s="18"/>
       <c r="J128" s="18"/>
       <c r="K128" s="18"/>
@@ -4315,7 +4363,7 @@
       <c r="O128" s="18"/>
       <c r="P128" s="18"/>
     </row>
-    <row r="129" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I129" s="18"/>
       <c r="J129" s="18"/>
       <c r="K129" s="18"/>
@@ -4325,7 +4373,7 @@
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
     </row>
-    <row r="130" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I130" s="18"/>
       <c r="J130" s="18"/>
       <c r="K130" s="18"/>
@@ -4335,13 +4383,22 @@
       <c r="O130" s="18"/>
       <c r="P130" s="18"/>
     </row>
+    <row r="135" spans="1:16" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A135" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="葉月ゆら（twitter：@yura_hatuki）"/>
+    <hyperlink ref="H3" r:id="rId1" display="葉月ゆら（twitter：@yura_hatuki）" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/JP/9_あとがき.xlsx
+++ b/JP/9_あとがき.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C50BC3-CFFB-4F69-BC3A-A19DD7B7610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8785D079-95A7-439A-AFD4-C31D44003721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,11 +976,11 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3424,8 +3424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3459,11 +3459,11 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -4384,7 +4384,7 @@
       <c r="P130" s="18"/>
     </row>
     <row r="135" spans="1:16" ht="19.8" x14ac:dyDescent="0.25">
-      <c r="A135" s="26" t="s">
+      <c r="A135" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B135" s="2"/>

--- a/JP/9_あとがき.xlsx
+++ b/JP/9_あとがき.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8785D079-95A7-439A-AFD4-C31D44003721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB6894-024B-4486-9418-B45741E610C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
   <si>
     <t>夜明けのソナチネ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,14 +42,6 @@
   </si>
   <si>
     <t>Strange Circus ～黒い炎の少女～</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考させていただいた諸々のコンテンツ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自分がめっちゃ好きな歌手の曲からいただきました：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,18 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赤ずきん劇場：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤ずきん劇場については、プレイヤーたちが赤ずきんをオオカミの攻撃から守るのがメイン、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>で最後に赤ずきんを安全な小屋に連れて行ってあげる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ギミック全体を通して舞台劇を表現するっていうのが目的。プレイヤーには劇中のキャラを演じてるみたいな気持ち</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,15 +384,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>エスナやヒールの負担はちょっと大きいかもしれないのでここのダメージはそれほど高くないように設定した</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（絶竜詩エスティニアンフェーズ）</t>
-  </si>
-  <si>
-    <t>ギミックごとの考え事：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>つまりタイムラインは実行力検証と謎解きが交互にして構成してます</t>
@@ -672,6 +644,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>本ページ内容終了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感謝：参考させていただいた諸々のコンテンツ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自分がとても好きな歌手の曲からいただきました：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極ティターニア討滅戦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大迷宮バハムート：真成編4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>童話劇場ギミック2つ（</t>
     </r>
@@ -684,7 +684,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>赤ずきん劇場</t>
+      <t>マッチ売り少女劇場</t>
     </r>
     <r>
       <rPr>
@@ -719,11 +719,136 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>テンポ（個人の感じによっての数値化、数字高いほどテンションが高い：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本ページ内容終了</t>
+    <t>マッチ売り少女劇場：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マッチの共通ギミックについて：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2）トリガーした時の視線ギミックは、「だれもこの哀れな少女を見ようとしない」っていうことの表現</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1番目のマッチ（ストーブ）について：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各ギミックの考え事：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そしてdotのギミックで炎の感じを表現する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3番目のマッチ（クリスマスツリー）について：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そのいろいろの円範囲をクリスマスツリーから落ちてくる一つ一つの飾り物だと思ってみれば？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑っていうのはこの3番目マッチギミックの由来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>バハムートの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>メガフレア</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>っていろいろ円範囲が落ちてくるイメージなので</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（1）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>マッチ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>少女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に近づいてギミックをトリガーするっていうのはマッチに火をつけるみたいな感じ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ストーブの暖かい炎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の感じから1番目のマッチで暖かさ全回復</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テンポ（個人のフィーリングによっての数値化、数字高いほどテンションが高い：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +856,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +977,38 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -940,7 +1097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -982,6 +1139,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1114,7 +1276,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$97:$I$110</c:f>
+              <c:f>Sheet1!$I$108:$I$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1575,7 +1737,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$118:$I$127</c:f>
+              <c:f>Sheet1!$I$129:$I$138</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3030,13 +3192,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>385141</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>40584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3066,13 +3228,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3422,10 +3584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P135"/>
+  <dimension ref="A1:P146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3433,8 +3595,9 @@
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="12.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="14.77734375" style="3" customWidth="1"/>
     <col min="11" max="11" width="13.21875" style="3" customWidth="1"/>
     <col min="12" max="12" width="18.109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
@@ -3443,7 +3606,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3451,16 +3614,19 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
@@ -3470,7 +3636,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3489,7 +3655,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3519,47 +3685,56 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>97</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3568,10 +3743,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3581,522 +3756,359 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C40" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D41" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E42" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E43" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C46" s="19" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E49" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D50" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C52" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="D49" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="E50" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="E51" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I54" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D55" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="E54" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="E55" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D58" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D59" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D61" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="E58" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="E59" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="E60" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C63" s="19" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I65" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D66" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E76" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E77" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C79" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D80" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="19" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D85" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D87" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D89" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D69" s="3" t="s">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="3" t="s">
+    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="3" t="s">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C97" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D74" s="3" t="s">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C98" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D76" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D78" s="3" t="s">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C103" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="7" t="s">
+      <c r="E103" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E104" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F105" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F107" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F108" s="11">
+        <v>0</v>
+      </c>
+      <c r="G108" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E93" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G93" s="10"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F94" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G94" s="10"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F96" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F97" s="11">
-        <v>0</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I97" s="18">
+      <c r="I108" s="18">
         <v>3</v>
-      </c>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="18"/>
-    </row>
-    <row r="98" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F98" s="11">
-        <v>1.5277777777777777E-2</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I98" s="18">
-        <v>4</v>
-      </c>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-    </row>
-    <row r="99" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F99" s="11">
-        <v>2.9166666666666664E-2</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I99" s="18">
-        <v>6</v>
-      </c>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-    </row>
-    <row r="100" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F100" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I100" s="18">
-        <v>9</v>
-      </c>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-    </row>
-    <row r="101" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F101" s="11">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I101" s="18">
-        <v>3</v>
-      </c>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-    </row>
-    <row r="102" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F102" s="11">
-        <v>6.9444444444444434E-2</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I102" s="18">
-        <v>4</v>
-      </c>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-    </row>
-    <row r="103" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F103" s="11">
-        <v>8.1944444444444445E-2</v>
-      </c>
-      <c r="G103" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I103" s="18">
-        <v>6</v>
-      </c>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-    </row>
-    <row r="104" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F104" s="11">
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I104" s="18">
-        <v>10</v>
-      </c>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="N104" s="18"/>
-      <c r="O104" s="18"/>
-      <c r="P104" s="18"/>
-    </row>
-    <row r="105" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F105" s="11">
-        <v>0.1076388888888889</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I105" s="18">
-        <v>7</v>
-      </c>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="18"/>
-      <c r="P105" s="18"/>
-    </row>
-    <row r="106" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F106" s="11">
-        <v>0.12083333333333333</v>
-      </c>
-      <c r="G106" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I106" s="18">
-        <v>3</v>
-      </c>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="18"/>
-      <c r="O106" s="18"/>
-      <c r="P106" s="18"/>
-    </row>
-    <row r="107" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F107" s="11">
-        <v>0.13263888888888889</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I107" s="18">
-        <v>6</v>
-      </c>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="18"/>
-      <c r="P107" s="18"/>
-    </row>
-    <row r="108" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F108" s="11">
-        <v>0.14652777777777778</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I108" s="18">
-        <v>10</v>
       </c>
       <c r="J108" s="18"/>
       <c r="K108" s="18"/>
@@ -4106,15 +4118,15 @@
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
     </row>
-    <row r="109" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F109" s="11">
-        <v>0.15902777777777777</v>
-      </c>
-      <c r="G109" s="17" t="s">
-        <v>81</v>
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="I109" s="18">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
@@ -4124,15 +4136,15 @@
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
     </row>
-    <row r="110" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F110" s="11">
-        <v>0.17152777777777775</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>82</v>
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="I110" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J110" s="18"/>
       <c r="K110" s="18"/>
@@ -4142,46 +4154,141 @@
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
     </row>
-    <row r="111" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F111" s="11">
-        <v>0.18680555555555556</v>
-      </c>
-      <c r="G111"/>
-    </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E113" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-    </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E114" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F115" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F117" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>94</v>
-      </c>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I111" s="18">
+        <v>9</v>
+      </c>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="18"/>
+    </row>
+    <row r="112" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F112" s="11">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I112" s="18">
+        <v>3</v>
+      </c>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="18"/>
+      <c r="P112" s="18"/>
+    </row>
+    <row r="113" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F113" s="11">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I113" s="18">
+        <v>4</v>
+      </c>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+    </row>
+    <row r="114" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F114" s="11">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I114" s="18">
+        <v>6</v>
+      </c>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
+      <c r="O114" s="18"/>
+      <c r="P114" s="18"/>
+    </row>
+    <row r="115" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F115" s="11">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I115" s="18">
+        <v>10</v>
+      </c>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+    </row>
+    <row r="116" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F116" s="11">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I116" s="18">
+        <v>7</v>
+      </c>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="18"/>
+      <c r="N116" s="18"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="18"/>
+    </row>
+    <row r="117" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F117" s="11">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I117" s="18">
+        <v>3</v>
+      </c>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
     </row>
     <row r="118" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F118" s="22">
-        <v>0</v>
-      </c>
-      <c r="G118" s="12" t="s">
-        <v>71</v>
+      <c r="F118" s="11">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="I118" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J118" s="18"/>
       <c r="K118" s="18"/>
@@ -4192,14 +4299,14 @@
       <c r="P118" s="18"/>
     </row>
     <row r="119" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F119" s="22">
-        <v>2.2916666666666669E-2</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>72</v>
+      <c r="F119" s="11">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="I119" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J119" s="18"/>
       <c r="K119" s="18"/>
@@ -4210,14 +4317,14 @@
       <c r="P119" s="18"/>
     </row>
     <row r="120" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F120" s="22">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>73</v>
+      <c r="F120" s="11">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="I120" s="18">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="J120" s="18"/>
       <c r="K120" s="18"/>
@@ -4228,14 +4335,14 @@
       <c r="P120" s="18"/>
     </row>
     <row r="121" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F121" s="22">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="G121" s="23" t="s">
-        <v>89</v>
+      <c r="F121" s="11">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="I121" s="18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J121" s="18"/>
       <c r="K121" s="18"/>
@@ -4246,125 +4353,46 @@
       <c r="P121" s="18"/>
     </row>
     <row r="122" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F122" s="22">
-        <v>7.013888888888889E-2</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I122" s="18">
+      <c r="F122" s="11">
+        <v>0.18680555555555556</v>
+      </c>
+      <c r="G122"/>
+    </row>
+    <row r="124" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E124" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+    </row>
+    <row r="125" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E125" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F126" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F128" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F129" s="22">
+        <v>0</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I129" s="18">
         <v>3</v>
       </c>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-      <c r="P122" s="18"/>
-    </row>
-    <row r="123" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F123" s="22">
-        <v>9.2361111111111116E-2</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I123" s="18">
-        <v>6</v>
-      </c>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="18"/>
-      <c r="P123" s="18"/>
-    </row>
-    <row r="124" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F124" s="22">
-        <v>0.10694444444444444</v>
-      </c>
-      <c r="G124" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I124" s="18">
-        <v>6.5</v>
-      </c>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="18"/>
-      <c r="P124" s="18"/>
-    </row>
-    <row r="125" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F125" s="22">
-        <v>0.12291666666666667</v>
-      </c>
-      <c r="G125" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I125" s="18">
-        <v>7</v>
-      </c>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="18"/>
-      <c r="P125" s="18"/>
-    </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F126" s="22">
-        <v>0.13749999999999998</v>
-      </c>
-      <c r="G126" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I126" s="18">
-        <v>7</v>
-      </c>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="18"/>
-      <c r="P126" s="18"/>
-    </row>
-    <row r="127" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F127" s="22">
-        <v>0.15833333333333333</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I127" s="18">
-        <v>3</v>
-      </c>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="18"/>
-      <c r="P127" s="18"/>
-    </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="I128" s="18"/>
-      <c r="J128" s="18"/>
-      <c r="K128" s="18"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="18"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="18"/>
-      <c r="P128" s="18"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I129" s="18"/>
       <c r="J129" s="18"/>
       <c r="K129" s="18"/>
       <c r="L129" s="18"/>
@@ -4373,8 +4401,16 @@
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I130" s="18"/>
+    <row r="130" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F130" s="22">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I130" s="18">
+        <v>6</v>
+      </c>
       <c r="J130" s="18"/>
       <c r="K130" s="18"/>
       <c r="L130" s="18"/>
@@ -4383,14 +4419,188 @@
       <c r="O130" s="18"/>
       <c r="P130" s="18"/>
     </row>
-    <row r="135" spans="1:16" ht="19.8" x14ac:dyDescent="0.25">
-      <c r="A135" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+    <row r="131" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F131" s="22">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I131" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
+      <c r="N131" s="18"/>
+      <c r="O131" s="18"/>
+      <c r="P131" s="18"/>
+    </row>
+    <row r="132" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F132" s="22">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G132" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I132" s="18">
+        <v>7</v>
+      </c>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="18"/>
+      <c r="N132" s="18"/>
+      <c r="O132" s="18"/>
+      <c r="P132" s="18"/>
+    </row>
+    <row r="133" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F133" s="22">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I133" s="18">
+        <v>3</v>
+      </c>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="18"/>
+      <c r="N133" s="18"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="18"/>
+    </row>
+    <row r="134" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F134" s="22">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I134" s="18">
+        <v>6</v>
+      </c>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="18"/>
+      <c r="O134" s="18"/>
+      <c r="P134" s="18"/>
+    </row>
+    <row r="135" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F135" s="22">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I135" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="18"/>
+      <c r="N135" s="18"/>
+      <c r="O135" s="18"/>
+      <c r="P135" s="18"/>
+    </row>
+    <row r="136" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F136" s="22">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="G136" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I136" s="18">
+        <v>7</v>
+      </c>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18"/>
+      <c r="N136" s="18"/>
+      <c r="O136" s="18"/>
+      <c r="P136" s="18"/>
+    </row>
+    <row r="137" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F137" s="22">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I137" s="18">
+        <v>7</v>
+      </c>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="18"/>
+      <c r="N137" s="18"/>
+      <c r="O137" s="18"/>
+      <c r="P137" s="18"/>
+    </row>
+    <row r="138" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F138" s="22">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I138" s="18">
+        <v>3</v>
+      </c>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
+      <c r="M138" s="18"/>
+      <c r="N138" s="18"/>
+      <c r="O138" s="18"/>
+      <c r="P138" s="18"/>
+    </row>
+    <row r="139" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="18"/>
+      <c r="N139" s="18"/>
+      <c r="O139" s="18"/>
+      <c r="P139" s="18"/>
+    </row>
+    <row r="140" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I140" s="18"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="18"/>
+      <c r="N140" s="18"/>
+      <c r="O140" s="18"/>
+      <c r="P140" s="18"/>
+    </row>
+    <row r="141" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
+      <c r="O141" s="18"/>
+      <c r="P141" s="18"/>
+    </row>
+    <row r="146" spans="1:5" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A146" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/JP/9_あとがき.xlsx
+++ b/JP/9_あとがき.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB6894-024B-4486-9418-B45741E610C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD949F9-2033-4FA9-9764-2976DFF0B938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
   <si>
     <t>夜明けのソナチネ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ギミック自体は設置して安置に散開するだけ、それほど難しくはない、でも形と演出はきれい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当コンテンツの難易度のテンポや具体のギミック内容はこちらのコンテンツを参考させていただきました：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,10 +715,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>マッチ売り少女劇場：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>マッチの共通ギミックについて：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,14 +736,6 @@
   </si>
   <si>
     <t>3番目のマッチ（クリスマスツリー）について：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>そのいろいろの円範囲をクリスマスツリーから落ちてくる一つ一つの飾り物だと思ってみれば？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>↑っていうのはこの3番目マッチギミックの由来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -851,12 +835,137 @@
     <t>テンポ（個人のフィーリングによっての数値化、数字高いほどテンションが高い：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>さて上にも書いたが、この劇場ギミックは謎解きがメインと想定してます、具体的には以下二つのところに「正しい動き」を考える必要がある：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（1）二番目マッチで全部のガチョウを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>少女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>がぶつかって処理する。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ガチョウが小さくなったら別に誰がぶつかっても大丈夫のようだが、そうすると</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>暖かさ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は回復できないためあとが厳しくなる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2）トリガーするタイミング</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般的の考えだと二番目マッチのガチョウを全部ぶつかってから三番目に移行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ギミック終了のとき暖かさ50点以上でないと</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>夢幻パラダイス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は失敗するため、ここの正攻法は2，3番目のマッチを同時に処理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうした場合はこの劇場ギミック自体は無事ですが、あとになるとまた再びここに戻って謎解きってことになる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（絶アレキの真心みたいな）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ギミック自体は設置して安置に散開するだけ、それほど難しくはない、でも列車で描いた星の形とか演出とかは綺麗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後半のイントロとしてはちょうどいいかも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マッチ売り少女　劇場：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「そのいろいろの円範囲をクリスマスツリーから落ちてくる一つ一つの飾り物だと思ってみれば？」っていうのはこの3番目マッチギミックの由来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あと塔の出現から判定の時間は徐々に早くなるんで、このテンポの変化も注意すべき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1118,13 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1136,14 +1252,14 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1276,7 +1392,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$108:$I$121</c:f>
+              <c:f>Sheet1!$I$119:$I$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1737,7 +1853,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$129:$I$138</c:f>
+              <c:f>Sheet1!$I$140:$I$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3192,13 +3308,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>385141</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>40584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3228,13 +3344,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3584,10 +3700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P146"/>
+  <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3606,7 +3722,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3614,29 +3730,29 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>96</v>
+      <c r="A2" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+        <v>94</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3655,7 +3771,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3689,11 +3805,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>97</v>
+      <c r="A15" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3706,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3714,7 +3830,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3751,7 +3867,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3807,7 +3923,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -3834,479 +3950,329 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="D45" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="D50" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E51" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E52" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="D49" s="28" t="s">
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="E50" s="28" t="s">
+    <row r="55" spans="4:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E55" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E56" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E59" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E60" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="D62" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E63" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="3:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="E51" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D53" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="E54" s="29" t="s">
+    <row r="64" spans="4:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="F64" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="3:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="E55" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="E58" s="29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="E59" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="E60" s="28" t="s">
+    <row r="66" spans="3:15" ht="18" x14ac:dyDescent="0.45">
+      <c r="E66" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15" ht="18" x14ac:dyDescent="0.45">
+      <c r="E67" s="27"/>
+      <c r="F67" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15" ht="18" x14ac:dyDescent="0.45">
+      <c r="E68" s="27"/>
+      <c r="F68" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15" ht="18" x14ac:dyDescent="0.45">
+      <c r="F69" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" ht="18" x14ac:dyDescent="0.45">
+      <c r="G71" s="27"/>
+    </row>
+    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C72" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+    </row>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I74" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D75" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D77" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D79" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D83" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C85" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D86" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E87" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E88" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C90" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D91" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D92" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D93" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E94" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D96" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D98" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D100" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C114" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E115" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F116" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F118" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I118" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D64" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I65" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J65" s="8"/>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D66" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D69" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D70" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M72" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C74" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-    </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D75" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E76" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E77" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C79" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-    </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D80" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D81" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D82" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D85" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D87" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D89" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C97" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C98" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B102" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C103" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E103" s="21" t="s">
+    <row r="119" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F119" s="11">
+        <v>0</v>
+      </c>
+      <c r="G119" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E104" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G104" s="10"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F105" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G105" s="10"/>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F107" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F108" s="11">
-        <v>0</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I108" s="18">
+      <c r="I119" s="18">
         <v>3</v>
-      </c>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="18"/>
-      <c r="P108" s="18"/>
-    </row>
-    <row r="109" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F109" s="11">
-        <v>1.5277777777777777E-2</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I109" s="18">
-        <v>4</v>
-      </c>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="18"/>
-      <c r="P109" s="18"/>
-    </row>
-    <row r="110" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F110" s="11">
-        <v>2.9166666666666664E-2</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I110" s="18">
-        <v>6</v>
-      </c>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="18"/>
-      <c r="P110" s="18"/>
-    </row>
-    <row r="111" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F111" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I111" s="18">
-        <v>9</v>
-      </c>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
-      <c r="P111" s="18"/>
-    </row>
-    <row r="112" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F112" s="11">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I112" s="18">
-        <v>3</v>
-      </c>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="18"/>
-      <c r="P112" s="18"/>
-    </row>
-    <row r="113" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F113" s="11">
-        <v>6.9444444444444434E-2</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I113" s="18">
-        <v>4</v>
-      </c>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="18"/>
-      <c r="P113" s="18"/>
-    </row>
-    <row r="114" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F114" s="11">
-        <v>8.1944444444444445E-2</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I114" s="18">
-        <v>6</v>
-      </c>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="18"/>
-      <c r="P114" s="18"/>
-    </row>
-    <row r="115" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F115" s="11">
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="G115" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I115" s="18">
-        <v>10</v>
-      </c>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="18"/>
-      <c r="P115" s="18"/>
-    </row>
-    <row r="116" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F116" s="11">
-        <v>0.1076388888888889</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I116" s="18">
-        <v>7</v>
-      </c>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-    </row>
-    <row r="117" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F117" s="11">
-        <v>0.12083333333333333</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I117" s="18">
-        <v>3</v>
-      </c>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-    </row>
-    <row r="118" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F118" s="11">
-        <v>0.13263888888888889</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I118" s="18">
-        <v>6</v>
-      </c>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="18"/>
-    </row>
-    <row r="119" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F119" s="11">
-        <v>0.14652777777777778</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I119" s="18">
-        <v>10</v>
       </c>
       <c r="J119" s="18"/>
       <c r="K119" s="18"/>
@@ -4316,15 +4282,15 @@
       <c r="O119" s="18"/>
       <c r="P119" s="18"/>
     </row>
-    <row r="120" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F120" s="11">
-        <v>0.15902777777777777</v>
-      </c>
-      <c r="G120" s="17" t="s">
-        <v>74</v>
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="I120" s="18">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J120" s="18"/>
       <c r="K120" s="18"/>
@@ -4334,15 +4300,15 @@
       <c r="O120" s="18"/>
       <c r="P120" s="18"/>
     </row>
-    <row r="121" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F121" s="11">
-        <v>0.17152777777777775</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>75</v>
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="I121" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J121" s="18"/>
       <c r="K121" s="18"/>
@@ -4352,46 +4318,141 @@
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
     </row>
-    <row r="122" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F122" s="11">
-        <v>0.18680555555555556</v>
-      </c>
-      <c r="G122"/>
-    </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E124" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-    </row>
-    <row r="125" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E125" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F126" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F128" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I128" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="129" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F129" s="22">
-        <v>0</v>
-      </c>
-      <c r="G129" s="12" t="s">
-        <v>64</v>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I122" s="18">
+        <v>9</v>
+      </c>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+    </row>
+    <row r="123" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F123" s="11">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I123" s="18">
+        <v>3</v>
+      </c>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+    </row>
+    <row r="124" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F124" s="11">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I124" s="18">
+        <v>4</v>
+      </c>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+    </row>
+    <row r="125" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F125" s="11">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I125" s="18">
+        <v>6</v>
+      </c>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+    </row>
+    <row r="126" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F126" s="11">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I126" s="18">
+        <v>10</v>
+      </c>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+    </row>
+    <row r="127" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F127" s="11">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I127" s="18">
+        <v>7</v>
+      </c>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
+      <c r="O127" s="18"/>
+      <c r="P127" s="18"/>
+    </row>
+    <row r="128" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F128" s="11">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I128" s="18">
+        <v>3</v>
+      </c>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
+    </row>
+    <row r="129" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F129" s="11">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="I129" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J129" s="18"/>
       <c r="K129" s="18"/>
@@ -4401,15 +4462,15 @@
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
     </row>
-    <row r="130" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F130" s="22">
-        <v>2.2916666666666669E-2</v>
-      </c>
-      <c r="G130" s="13" t="s">
-        <v>65</v>
+    <row r="130" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F130" s="11">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="I130" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J130" s="18"/>
       <c r="K130" s="18"/>
@@ -4419,15 +4480,15 @@
       <c r="O130" s="18"/>
       <c r="P130" s="18"/>
     </row>
-    <row r="131" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F131" s="22">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="G131" s="14" t="s">
-        <v>66</v>
+    <row r="131" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F131" s="11">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="I131" s="18">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="J131" s="18"/>
       <c r="K131" s="18"/>
@@ -4437,15 +4498,15 @@
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
     </row>
-    <row r="132" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F132" s="22">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="G132" s="23" t="s">
-        <v>82</v>
+    <row r="132" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F132" s="11">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="I132" s="18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J132" s="18"/>
       <c r="K132" s="18"/>
@@ -4455,126 +4516,47 @@
       <c r="O132" s="18"/>
       <c r="P132" s="18"/>
     </row>
-    <row r="133" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F133" s="22">
-        <v>7.013888888888889E-2</v>
-      </c>
-      <c r="G133" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I133" s="18">
+    <row r="133" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F133" s="11">
+        <v>0.18680555555555556</v>
+      </c>
+      <c r="G133"/>
+    </row>
+    <row r="135" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E135" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+    </row>
+    <row r="136" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E136" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F137" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F139" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F140" s="22">
+        <v>0</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I140" s="18">
         <v>3</v>
       </c>
-      <c r="J133" s="18"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="18"/>
-      <c r="M133" s="18"/>
-      <c r="N133" s="18"/>
-      <c r="O133" s="18"/>
-      <c r="P133" s="18"/>
-    </row>
-    <row r="134" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F134" s="22">
-        <v>9.2361111111111116E-2</v>
-      </c>
-      <c r="G134" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I134" s="18">
-        <v>6</v>
-      </c>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="18"/>
-      <c r="N134" s="18"/>
-      <c r="O134" s="18"/>
-      <c r="P134" s="18"/>
-    </row>
-    <row r="135" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F135" s="22">
-        <v>0.10694444444444444</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I135" s="18">
-        <v>6.5</v>
-      </c>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="18"/>
-      <c r="M135" s="18"/>
-      <c r="N135" s="18"/>
-      <c r="O135" s="18"/>
-      <c r="P135" s="18"/>
-    </row>
-    <row r="136" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F136" s="22">
-        <v>0.12291666666666667</v>
-      </c>
-      <c r="G136" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I136" s="18">
-        <v>7</v>
-      </c>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="18"/>
-      <c r="N136" s="18"/>
-      <c r="O136" s="18"/>
-      <c r="P136" s="18"/>
-    </row>
-    <row r="137" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F137" s="22">
-        <v>0.13749999999999998</v>
-      </c>
-      <c r="G137" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I137" s="18">
-        <v>7</v>
-      </c>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="18"/>
-      <c r="N137" s="18"/>
-      <c r="O137" s="18"/>
-      <c r="P137" s="18"/>
-    </row>
-    <row r="138" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="F138" s="22">
-        <v>0.15833333333333333</v>
-      </c>
-      <c r="G138" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I138" s="18">
-        <v>3</v>
-      </c>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="18"/>
-      <c r="N138" s="18"/>
-      <c r="O138" s="18"/>
-      <c r="P138" s="18"/>
-    </row>
-    <row r="139" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="18"/>
-      <c r="N139" s="18"/>
-      <c r="O139" s="18"/>
-      <c r="P139" s="18"/>
-    </row>
-    <row r="140" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I140" s="18"/>
       <c r="J140" s="18"/>
       <c r="K140" s="18"/>
       <c r="L140" s="18"/>
@@ -4583,8 +4565,16 @@
       <c r="O140" s="18"/>
       <c r="P140" s="18"/>
     </row>
-    <row r="141" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I141" s="18"/>
+    <row r="141" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F141" s="22">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I141" s="18">
+        <v>6</v>
+      </c>
       <c r="J141" s="18"/>
       <c r="K141" s="18"/>
       <c r="L141" s="18"/>
@@ -4593,14 +4583,188 @@
       <c r="O141" s="18"/>
       <c r="P141" s="18"/>
     </row>
-    <row r="146" spans="1:5" ht="19.8" x14ac:dyDescent="0.25">
-      <c r="A146" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
+    <row r="142" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F142" s="22">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I142" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="18"/>
+      <c r="O142" s="18"/>
+      <c r="P142" s="18"/>
+    </row>
+    <row r="143" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F143" s="22">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G143" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I143" s="18">
+        <v>7</v>
+      </c>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
+      <c r="N143" s="18"/>
+      <c r="O143" s="18"/>
+      <c r="P143" s="18"/>
+    </row>
+    <row r="144" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F144" s="22">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I144" s="18">
+        <v>3</v>
+      </c>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="18"/>
+      <c r="N144" s="18"/>
+      <c r="O144" s="18"/>
+      <c r="P144" s="18"/>
+    </row>
+    <row r="145" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F145" s="22">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I145" s="18">
+        <v>6</v>
+      </c>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
+      <c r="M145" s="18"/>
+      <c r="N145" s="18"/>
+      <c r="O145" s="18"/>
+      <c r="P145" s="18"/>
+    </row>
+    <row r="146" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F146" s="22">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I146" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="J146" s="18"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
+      <c r="M146" s="18"/>
+      <c r="N146" s="18"/>
+      <c r="O146" s="18"/>
+      <c r="P146" s="18"/>
+    </row>
+    <row r="147" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F147" s="22">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I147" s="18">
+        <v>7</v>
+      </c>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="18"/>
+      <c r="N147" s="18"/>
+      <c r="O147" s="18"/>
+      <c r="P147" s="18"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F148" s="22">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="G148" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I148" s="18">
+        <v>7</v>
+      </c>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="18"/>
+      <c r="N148" s="18"/>
+      <c r="O148" s="18"/>
+      <c r="P148" s="18"/>
+    </row>
+    <row r="149" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F149" s="22">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I149" s="18">
+        <v>3</v>
+      </c>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
+      <c r="O149" s="18"/>
+      <c r="P149" s="18"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18"/>
+      <c r="N150" s="18"/>
+      <c r="O150" s="18"/>
+      <c r="P150" s="18"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="18"/>
+      <c r="O151" s="18"/>
+      <c r="P151" s="18"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18"/>
+      <c r="O152" s="18"/>
+      <c r="P152" s="18"/>
+    </row>
+    <row r="157" spans="1:16" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A157" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/JP/9_あとがき.xlsx
+++ b/JP/9_あとがき.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE800A50-5B24-4358-B694-F18F614F8472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03383408-0784-49A1-8D08-8DD85AFD28FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="326">
   <si>
     <t>夜明けのソナチネ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,10 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄昏メリーゴーランドからの白黒塔、4人集まらせるだけで白黒の色は気にしなくてもいい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>個人的な考えですが、FF14の高難易度レイドは舞台劇に似てると思います</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,7 +459,7 @@
   </si>
   <si>
     <r>
-      <t>小ギミック連発のコンテンツに適する</t>
+      <t>複数の運動会ギミックがあるコンテンツに適する</t>
     </r>
     <r>
       <rPr>
@@ -473,22 +469,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（絶アルテマのタイタンフェーズ）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>複数の運動会ギミックがあるコンテンツに適する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>（当コンテンツはこのパターンを参照）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,10 +551,6 @@
   </si>
   <si>
     <t>1番目のマッチ（ストーブ）について：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各ギミックの考え事：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -986,35 +962,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>夜明けローラーコースターからの列車、でも設置型ではなくサイコロ順番の距離減衰突進に変わった</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（O12S）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>マッチ売り少女劇場からの四番目のマッチ：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原作では少女は多くのマッチを一斉に火をつけておばあちゃんの幻影を引き留めようとした</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ここもそれを再現で、一斉にトリガーするほうがギミック正解で、演出も綺麗にしたい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>アリス劇場からのチェシャ猫：ただの左右半分焼き、見て避ける</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1436,28 +1388,25 @@
   </si>
   <si>
     <r>
-      <t>ボスが</t>
-    </r>
-    <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>夢幻パラダイス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t>夜明けローラーコースター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>を詠唱</t>
+      <t>詠唱終了</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1471,7 +1420,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>夜明けローラーコースター</t>
+      <t>劇場開幕</t>
     </r>
     <r>
       <rPr>
@@ -1495,7 +1444,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>劇場開幕</t>
+      <t>黄昏メリーゴーランド</t>
     </r>
     <r>
       <rPr>
@@ -1505,55 +1454,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>詠唱終了</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黄昏メリーゴーランド</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>詠唱終了、フィールド八方向に【一回目塔】が出現</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夢幻パラダイス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>詠唱終了</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3226,22 +3127,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>タイムライン7:40から8:56のbgmはアレキサンドライトと黒の魔女(instrumental)の3:24-4:40を想定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戦いの終盤になってbgmもまた連続のクライマックスになる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最後の全体攻撃連発はプレイヤーのテンションを一番高く乗せようという考え</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>例えるなら歌の最後にクライマックスの歌詞を三四回リピートするような</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>時間切れと同時にbgmもちょうど終わる</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3262,10 +3151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>絶アレキのフェーズ3みたいな。絶アレキは個人的に一番素敵なコンテンツだと思ってます（ギミックとか演出とかストーリー性とかいろいろ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>絶アルテマの覚醒ギミックみたいな</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3275,6 +3160,258 @@
   </si>
   <si>
     <t>　ダメージはおおよそ60-70％になる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>絶アレキのフェーズ3みたいな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ボスが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夢幻パラダイス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を詠唱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夢幻パラダイス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>詠唱終了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>タイムライン7:40から8:56のbgmは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>アレキサンドライトと黒の魔女(instrumental)の3:24-4:40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を想定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いよいよ戦いの終盤になって、bgmもまた連続のクライマックスになる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例えるなら歌や曲の終盤にクライマックス部分を三四回リピートするような</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各ギミックの考え：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>モチーフはアンデルセンの童話「マッチ売りの少女」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>モチーフはルイス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・キャロルの作品「不思議の国のアリス」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>夜明けローラーコースターからの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列車</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、でも設置型ではなくサイコロ順番の距離減衰突進に変わった</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（O12S）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>黄昏メリーゴーランドからの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白黒塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、4人集まらせるだけで白黒の色は気にしなくてもいい</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>マッチ売り少女劇場からの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四番目のマッチ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>アリス劇場からの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チェシャ猫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：ただの左右半分焼き、見て避ける</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小ギミック連発のコンテンツに適する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（当コンテンツはこれではないが、絶アルテマのタイタンフェーズとかはこういうタイプだと思います）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※あくまで想定です、勝手に使っていただいてるだけです</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3282,7 +3419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3468,14 +3605,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3721,7 +3850,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3787,7 +3916,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3799,10 +3928,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3814,7 +3943,7 @@
     <xf numFmtId="20" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3835,7 +3964,7 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3982,7 +4111,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$124:$I$137</c:f>
+              <c:f>Sheet1!$I$128:$I$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4443,7 +4572,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$145:$I$154</c:f>
+              <c:f>Sheet1!$I$149:$I$158</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5898,13 +6027,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>385141</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>40584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5934,13 +6063,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6290,10 +6419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P162"/>
+  <dimension ref="A1:P166"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6312,7 +6441,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6321,18 +6450,18 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H3" s="79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I3" s="79"/>
       <c r="J3" s="79"/>
@@ -6342,7 +6471,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -6396,7 +6525,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>41</v>
@@ -6417,7 +6546,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6425,7 +6554,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6452,12 +6581,12 @@
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G25" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6513,19 +6642,19 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>92</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C40" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D41" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
@@ -6540,415 +6669,361 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C47" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D50" s="3" t="s">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="3" t="s">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D60" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D64" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E65" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D54" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E55" s="3" t="s">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F66" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D58" s="3" t="s">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E68" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D62" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F64" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E66" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F67" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F68" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="69" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F69" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O69" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C72" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F70" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F71" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C74" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D73" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J73" s="7"/>
-    </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="I74" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J74" s="7"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D75" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="7"/>
     </row>
     <row r="77" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D77" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D78" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D79" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>35</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D81" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D83" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C85" s="11" t="s">
+      <c r="D85" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C87" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D86" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E87" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E88" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+    </row>
+    <row r="88" spans="3:13" ht="18" x14ac:dyDescent="0.45">
+      <c r="C88" s="9"/>
+      <c r="D88" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
     </row>
     <row r="90" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D90" s="3" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D91" s="3" t="s">
-        <v>120</v>
+      <c r="E91" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E92" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C94" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
+      <c r="D94" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="95" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D95" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C98" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D99" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D97" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D98" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E99" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D101" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D102" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E103" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D105" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D103" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="E104" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E105" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D106" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="P106" s="6"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D108" s="3" t="s">
-        <v>126</v>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D107" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="E108" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E109" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="E109" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D110" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="P110" s="6"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D112" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E113" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C117" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C118" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C123" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C113" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C114" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B115" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B118" s="3" t="s">
+      <c r="E123" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F124" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F125" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C119" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E119" s="12" t="s">
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F127" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F128" s="13">
+        <v>0</v>
+      </c>
+      <c r="G128" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-    </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F120" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G120" s="9"/>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F121" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G121" s="9"/>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F123" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F124" s="13">
-        <v>0</v>
-      </c>
-      <c r="G124" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I124" s="10">
-        <v>3</v>
-      </c>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
-      <c r="O124" s="10"/>
-      <c r="P124" s="10"/>
-    </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F125" s="13">
-        <v>1.5277777777777777E-2</v>
-      </c>
-      <c r="G125" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I125" s="10">
-        <v>4</v>
-      </c>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
-      <c r="L125" s="10"/>
-      <c r="M125" s="10"/>
-      <c r="N125" s="10"/>
-      <c r="O125" s="10"/>
-      <c r="P125" s="10"/>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F126" s="13">
-        <v>2.9166666666666664E-2</v>
-      </c>
-      <c r="G126" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I126" s="10">
-        <v>6</v>
-      </c>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
-      <c r="L126" s="10"/>
-      <c r="M126" s="10"/>
-      <c r="N126" s="10"/>
-      <c r="O126" s="10"/>
-      <c r="P126" s="10"/>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F127" s="13">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I127" s="10">
-        <v>9</v>
-      </c>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10"/>
-      <c r="O127" s="10"/>
-      <c r="P127" s="10"/>
-    </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F128" s="13">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="I128" s="10">
         <v>3</v>
@@ -6963,10 +7038,10 @@
     </row>
     <row r="129" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F129" s="13">
-        <v>6.9444444444444434E-2</v>
+        <v>1.5277777777777777E-2</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I129" s="10">
         <v>4</v>
@@ -6981,10 +7056,10 @@
     </row>
     <row r="130" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F130" s="13">
-        <v>8.1944444444444445E-2</v>
+        <v>2.9166666666666664E-2</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I130" s="10">
         <v>6</v>
@@ -6999,13 +7074,13 @@
     </row>
     <row r="131" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F131" s="13">
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="G131" s="20" t="s">
-        <v>61</v>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G131" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="I131" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
@@ -7017,13 +7092,13 @@
     </row>
     <row r="132" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F132" s="13">
-        <v>0.1076388888888889</v>
-      </c>
-      <c r="G132" s="21" t="s">
-        <v>62</v>
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="I132" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J132" s="10"/>
       <c r="K132" s="10"/>
@@ -7035,13 +7110,13 @@
     </row>
     <row r="133" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F133" s="13">
-        <v>0.12083333333333333</v>
-      </c>
-      <c r="G133" s="16" t="s">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="G133" s="17" t="s">
         <v>58</v>
       </c>
       <c r="I133" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -7053,10 +7128,10 @@
     </row>
     <row r="134" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F134" s="13">
-        <v>0.13263888888888889</v>
+        <v>8.1944444444444445E-2</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I134" s="10">
         <v>6</v>
@@ -7071,10 +7146,10 @@
     </row>
     <row r="135" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F135" s="13">
-        <v>0.14652777777777778</v>
-      </c>
-      <c r="G135" s="19" t="s">
-        <v>57</v>
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="G135" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="I135" s="10">
         <v>10</v>
@@ -7089,13 +7164,13 @@
     </row>
     <row r="136" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F136" s="13">
-        <v>0.15902777777777777</v>
-      </c>
-      <c r="G136" s="20" t="s">
-        <v>64</v>
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="G136" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="I136" s="10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
@@ -7107,10 +7182,10 @@
     </row>
     <row r="137" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F137" s="13">
-        <v>0.17152777777777775</v>
+        <v>0.12083333333333333</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I137" s="10">
         <v>3</v>
@@ -7125,112 +7200,112 @@
     </row>
     <row r="138" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F138" s="13">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I138" s="10">
+        <v>6</v>
+      </c>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+      <c r="O138" s="10"/>
+      <c r="P138" s="10"/>
+    </row>
+    <row r="139" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F139" s="13">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="G139" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I139" s="10">
+        <v>10</v>
+      </c>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="10"/>
+      <c r="O139" s="10"/>
+      <c r="P139" s="10"/>
+    </row>
+    <row r="140" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F140" s="13">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="G140" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I140" s="10">
+        <v>11</v>
+      </c>
+      <c r="J140" s="10"/>
+      <c r="K140" s="10"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="10"/>
+      <c r="O140" s="10"/>
+      <c r="P140" s="10"/>
+    </row>
+    <row r="141" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F141" s="13">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I141" s="10">
+        <v>3</v>
+      </c>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="10"/>
+      <c r="O141" s="10"/>
+      <c r="P141" s="10"/>
+    </row>
+    <row r="142" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F142" s="13">
         <v>0.18680555555555556</v>
       </c>
     </row>
-    <row r="140" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E140" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-    </row>
-    <row r="141" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F141" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="142" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F142" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="144" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F144" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I144" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="E144" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
     </row>
     <row r="145" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F145" s="13">
-        <v>0</v>
-      </c>
-      <c r="G145" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I145" s="10">
-        <v>3</v>
-      </c>
-      <c r="J145" s="10"/>
-      <c r="K145" s="10"/>
-      <c r="L145" s="10"/>
-      <c r="M145" s="10"/>
-      <c r="N145" s="10"/>
-      <c r="O145" s="10"/>
-      <c r="P145" s="10"/>
+      <c r="F145" s="25" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="146" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F146" s="13">
-        <v>2.2916666666666669E-2</v>
-      </c>
-      <c r="G146" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I146" s="10">
-        <v>6</v>
-      </c>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="10"/>
-      <c r="N146" s="10"/>
-      <c r="O146" s="10"/>
-      <c r="P146" s="10"/>
-    </row>
-    <row r="147" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F147" s="13">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="G147" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I147" s="10">
-        <v>6.5</v>
-      </c>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
-      <c r="L147" s="10"/>
-      <c r="M147" s="10"/>
-      <c r="N147" s="10"/>
-      <c r="O147" s="10"/>
-      <c r="P147" s="10"/>
+      <c r="F146" s="3" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="148" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F148" s="13">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="G148" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I148" s="10">
-        <v>7</v>
-      </c>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
-      <c r="M148" s="10"/>
-      <c r="N148" s="10"/>
-      <c r="O148" s="10"/>
-      <c r="P148" s="10"/>
+      <c r="F148" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="149" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F149" s="13">
-        <v>7.013888888888889E-2</v>
+        <v>0</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I149" s="10">
         <v>3</v>
@@ -7245,10 +7320,10 @@
     </row>
     <row r="150" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F150" s="13">
-        <v>9.2361111111111116E-2</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I150" s="10">
         <v>6</v>
@@ -7263,10 +7338,10 @@
     </row>
     <row r="151" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F151" s="13">
-        <v>0.10694444444444444</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I151" s="10">
         <v>6.5</v>
@@ -7281,10 +7356,10 @@
     </row>
     <row r="152" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F152" s="13">
-        <v>0.12291666666666667</v>
+        <v>5.4166666666666669E-2</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I152" s="10">
         <v>7</v>
@@ -7299,13 +7374,13 @@
     </row>
     <row r="153" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F153" s="13">
-        <v>0.13749999999999998</v>
-      </c>
-      <c r="G153" s="23" t="s">
-        <v>73</v>
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G153" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="I153" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
@@ -7317,13 +7392,13 @@
     </row>
     <row r="154" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F154" s="13">
-        <v>0.15833333333333333</v>
-      </c>
-      <c r="G154" s="16" t="s">
-        <v>74</v>
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="I154" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
@@ -7334,7 +7409,15 @@
       <c r="P154" s="10"/>
     </row>
     <row r="155" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I155" s="10"/>
+      <c r="F155" s="13">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="G155" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I155" s="10">
+        <v>6.5</v>
+      </c>
       <c r="J155" s="10"/>
       <c r="K155" s="10"/>
       <c r="L155" s="10"/>
@@ -7344,7 +7427,15 @@
       <c r="P155" s="10"/>
     </row>
     <row r="156" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I156" s="10"/>
+      <c r="F156" s="13">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="G156" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I156" s="10">
+        <v>7</v>
+      </c>
       <c r="J156" s="10"/>
       <c r="K156" s="10"/>
       <c r="L156" s="10"/>
@@ -7354,7 +7445,15 @@
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I157" s="10"/>
+      <c r="F157" s="13">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="G157" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I157" s="10">
+        <v>7</v>
+      </c>
       <c r="J157" s="10"/>
       <c r="K157" s="10"/>
       <c r="L157" s="10"/>
@@ -7363,14 +7462,62 @@
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
     </row>
-    <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
+    <row r="158" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F158" s="13">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I158" s="10">
+        <v>3</v>
+      </c>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="10"/>
+      <c r="N158" s="10"/>
+      <c r="O158" s="10"/>
+      <c r="P158" s="10"/>
+    </row>
+    <row r="159" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I159" s="10"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
+      <c r="L159" s="10"/>
+      <c r="M159" s="10"/>
+      <c r="N159" s="10"/>
+      <c r="O159" s="10"/>
+      <c r="P159" s="10"/>
+    </row>
+    <row r="160" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I160" s="10"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="10"/>
+      <c r="L160" s="10"/>
+      <c r="M160" s="10"/>
+      <c r="N160" s="10"/>
+      <c r="O160" s="10"/>
+      <c r="P160" s="10"/>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I161" s="10"/>
+      <c r="J161" s="10"/>
+      <c r="K161" s="10"/>
+      <c r="L161" s="10"/>
+      <c r="M161" s="10"/>
+      <c r="N161" s="10"/>
+      <c r="O161" s="10"/>
+      <c r="P161" s="10"/>
+    </row>
+    <row r="166" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7391,8 +7538,8 @@
   <dimension ref="A1:BI219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7436,7 +7583,7 @@
   <sheetData>
     <row r="1" spans="2:61" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -7444,14 +7591,14 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="K1" s="72" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L1" s="68" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M1" s="75"/>
       <c r="N1" s="65" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O1" s="66"/>
       <c r="P1" s="66"/>
@@ -7506,18 +7653,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J2" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K2" s="69" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="L2" s="28"/>
       <c r="M2" s="33"/>
       <c r="N2" s="67" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
@@ -7569,13 +7716,13 @@
     </row>
     <row r="3" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J3" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
       <c r="M3" s="76"/>
       <c r="N3" s="67" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
@@ -7630,17 +7777,17 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J4" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K4" s="70" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L4" s="53"/>
       <c r="M4" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
@@ -7695,20 +7842,20 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K5" s="53" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="L5" s="53"/>
       <c r="M5" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N5" s="53" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="O5" s="58"/>
       <c r="P5" s="52"/>
@@ -7760,14 +7907,16 @@
     </row>
     <row r="6" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J6" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K6" s="53"/>
       <c r="L6" s="53"/>
       <c r="M6" s="77" t="s">
-        <v>269</v>
-      </c>
-      <c r="N6" s="53"/>
+        <v>261</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
@@ -7821,15 +7970,15 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
       <c r="M7" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N7" s="53"/>
       <c r="O7" s="52"/>
@@ -7885,18 +8034,18 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="J8" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
       <c r="M8" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N8" s="67" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -7948,15 +8097,15 @@
     </row>
     <row r="9" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J9" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
       <c r="M9" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N9" s="67" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
@@ -8011,17 +8160,17 @@
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J10" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K10" s="70" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L10" s="53"/>
       <c r="M10" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N10" s="53"/>
       <c r="O10" s="52"/>
@@ -8077,17 +8226,17 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J11" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K11" s="53" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="L11" s="53"/>
       <c r="M11" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N11" s="53"/>
       <c r="O11" s="52"/>
@@ -8143,15 +8292,15 @@
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J12" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="53"/>
       <c r="M12" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N12" s="55"/>
       <c r="O12" s="52"/>
@@ -8204,12 +8353,12 @@
     </row>
     <row r="13" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J13" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
       <c r="M13" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N13" s="53"/>
       <c r="O13" s="52"/>
@@ -8265,15 +8414,15 @@
         <v>3.1944444444444449E-2</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K14" s="53"/>
       <c r="L14" s="53"/>
       <c r="M14" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N14" s="53"/>
       <c r="O14" s="52"/>
@@ -8329,15 +8478,15 @@
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="J15" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
       <c r="M15" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N15" s="53"/>
       <c r="O15" s="52"/>
@@ -8390,12 +8539,12 @@
     </row>
     <row r="16" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J16" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
       <c r="M16" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="52"/>
@@ -8451,15 +8600,15 @@
         <v>4.0972222222222222E-2</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J17" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="53"/>
       <c r="M17" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N17" s="53"/>
       <c r="O17" s="52"/>
@@ -8515,20 +8664,20 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D18" s="63"/>
       <c r="E18" s="63"/>
       <c r="J18" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K18" s="53"/>
       <c r="L18" s="53"/>
       <c r="M18" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N18" s="67" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="O18" s="52"/>
       <c r="P18" s="52"/>
@@ -8586,18 +8735,18 @@
         <v>0</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J19" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K19" s="53"/>
       <c r="L19" s="53"/>
       <c r="M19" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N19" s="67" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
@@ -8656,15 +8805,15 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J20" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K20" s="53"/>
       <c r="L20" s="53"/>
       <c r="M20" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N20" s="53"/>
       <c r="O20" s="52"/>
@@ -8724,15 +8873,15 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J21" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K21" s="53"/>
       <c r="L21" s="53"/>
       <c r="M21" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N21" s="53"/>
       <c r="O21" s="52"/>
@@ -8788,15 +8937,15 @@
       <c r="C22" s="29"/>
       <c r="D22" s="35"/>
       <c r="J22" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
       <c r="M22" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N22" s="71" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="O22" s="52"/>
       <c r="P22" s="52"/>
@@ -8855,15 +9004,15 @@
         <v>1.1805555555555555E-2</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J23" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
       <c r="M23" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N23" s="62"/>
       <c r="O23" s="52"/>
@@ -8923,15 +9072,15 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J24" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
       <c r="M24" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N24" s="62"/>
       <c r="O24" s="52"/>
@@ -8992,15 +9141,15 @@
         <v>1.3194444444444399E-2</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J25" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
       <c r="M25" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N25" s="55"/>
       <c r="O25" s="52"/>
@@ -9060,15 +9209,15 @@
         <v>1.38888888888889E-2</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J26" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
       <c r="M26" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N26" s="55"/>
       <c r="O26" s="52"/>
@@ -9129,15 +9278,15 @@
         <v>1.4583333333333301E-2</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J27" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
       <c r="M27" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N27" s="55"/>
       <c r="O27" s="52"/>
@@ -9198,14 +9347,14 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="J28" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L28" s="55"/>
       <c r="M28" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N28" s="55"/>
       <c r="O28" s="52"/>
@@ -9261,14 +9410,14 @@
       <c r="B29" s="30"/>
       <c r="C29" s="36"/>
       <c r="J29" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K29" s="71" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N29" s="55"/>
       <c r="O29" s="52"/>
@@ -9329,17 +9478,17 @@
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J30" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K30" s="71" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N30" s="55"/>
       <c r="O30" s="52"/>
@@ -9400,15 +9549,15 @@
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J31" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K31" s="55"/>
       <c r="L31" s="55"/>
       <c r="M31" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N31" s="55"/>
       <c r="O31" s="52"/>
@@ -9469,15 +9618,15 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="J32" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K32" s="55"/>
       <c r="L32" s="55"/>
       <c r="M32" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N32" s="55"/>
       <c r="O32" s="52"/>
@@ -9538,15 +9687,15 @@
         <v>2.36111111111111E-2</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J33" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K33" s="55"/>
       <c r="L33" s="55"/>
       <c r="M33" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N33" s="55"/>
       <c r="O33" s="52"/>
@@ -9607,17 +9756,17 @@
         <v>2.4305555555555601E-2</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J34" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K34" s="71" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="L34" s="55"/>
       <c r="M34" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N34" s="55"/>
       <c r="O34" s="52"/>
@@ -9678,15 +9827,15 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J35" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K35" s="55"/>
       <c r="L35" s="55"/>
       <c r="M35" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N35" s="55"/>
       <c r="O35" s="52"/>
@@ -9742,12 +9891,12 @@
       <c r="B36" s="30"/>
       <c r="C36" s="36"/>
       <c r="J36" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K36" s="55"/>
       <c r="L36" s="55"/>
       <c r="M36" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N36" s="55"/>
       <c r="O36" s="52"/>
@@ -9808,18 +9957,18 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J37" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K37" s="55"/>
       <c r="L37" s="55"/>
       <c r="M37" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N37" s="55" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="O37" s="52"/>
       <c r="P37" s="52"/>
@@ -9879,20 +10028,20 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J38" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K38" s="70" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L38" s="55"/>
       <c r="M38" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N38" s="71" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
@@ -9952,15 +10101,15 @@
         <v>3.125E-2</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J39" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K39" s="53"/>
       <c r="L39" s="55"/>
       <c r="M39" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N39" s="55"/>
       <c r="O39" s="52"/>
@@ -10014,12 +10163,12 @@
     <row r="40" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="J40" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
       <c r="M40" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N40" s="55"/>
       <c r="O40" s="52"/>
@@ -10076,17 +10225,17 @@
         <v>7.8472222222222221E-2</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J41" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K41" s="70" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L41" s="55"/>
       <c r="M41" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N41" s="55"/>
       <c r="O41" s="52"/>
@@ -10143,15 +10292,15 @@
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J42" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K42" s="53"/>
       <c r="L42" s="55"/>
       <c r="M42" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N42" s="55"/>
       <c r="O42" s="52"/>
@@ -10208,20 +10357,20 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J43" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K43" s="69" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N43" s="71" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O43" s="52"/>
       <c r="P43" s="52"/>
@@ -10275,12 +10424,12 @@
       <c r="A44" s="48"/>
       <c r="B44" s="28"/>
       <c r="J44" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K44" s="55"/>
       <c r="L44" s="55"/>
       <c r="M44" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N44" s="55"/>
       <c r="O44" s="52"/>
@@ -10337,17 +10486,17 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="C45" s="64" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D45" s="64"/>
       <c r="E45" s="64"/>
       <c r="J45" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K45" s="55"/>
       <c r="L45" s="55"/>
       <c r="M45" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N45" s="55"/>
       <c r="O45" s="52"/>
@@ -10407,20 +10556,20 @@
         <v>0</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J46" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="K46" s="70" t="s">
         <v>269</v>
-      </c>
-      <c r="K46" s="70" t="s">
-        <v>277</v>
       </c>
       <c r="L46" s="55"/>
       <c r="M46" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N46" s="71" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="O46" s="52"/>
       <c r="P46" s="52"/>
@@ -10480,14 +10629,14 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J47" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K47" s="53"/>
       <c r="M47" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10495,16 +10644,16 @@
       <c r="B48" s="30"/>
       <c r="C48" s="29"/>
       <c r="D48" s="28" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J48" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K48" s="69" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M48" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10512,13 +10661,13 @@
       <c r="B49" s="30"/>
       <c r="C49" s="36"/>
       <c r="D49" s="28" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J49" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M49" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10526,10 +10675,10 @@
       <c r="B50" s="30"/>
       <c r="C50" s="29"/>
       <c r="J50" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M50" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10542,19 +10691,19 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J51" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K51" s="73" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M51" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N51" s="36" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10567,16 +10716,16 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J52" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M52" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N52" s="73" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10584,10 +10733,10 @@
       <c r="B53" s="30"/>
       <c r="C53" s="36"/>
       <c r="J53" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M53" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10600,13 +10749,13 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J54" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M54" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10614,13 +10763,13 @@
       <c r="B55" s="30"/>
       <c r="C55" s="29"/>
       <c r="D55" s="28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J55" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M55" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10628,10 +10777,10 @@
       <c r="B56" s="30"/>
       <c r="C56" s="29"/>
       <c r="J56" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M56" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10640,10 +10789,10 @@
       <c r="C57" s="36"/>
       <c r="D57" s="46"/>
       <c r="J57" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M57" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10656,13 +10805,13 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="J58" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M58" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10675,13 +10824,13 @@
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J59" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M59" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10694,13 +10843,13 @@
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J60" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M60" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10708,10 +10857,10 @@
       <c r="B61" s="30"/>
       <c r="C61" s="29"/>
       <c r="J61" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M61" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10724,16 +10873,16 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J62" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M62" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10746,13 +10895,13 @@
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J63" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M63" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10760,10 +10909,10 @@
       <c r="B64" s="30"/>
       <c r="C64" s="29"/>
       <c r="J64" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M64" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10776,16 +10925,16 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J65" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M65" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10793,10 +10942,10 @@
       <c r="B66" s="30"/>
       <c r="C66" s="29"/>
       <c r="J66" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M66" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10804,10 +10953,10 @@
       <c r="B67" s="30"/>
       <c r="C67" s="29"/>
       <c r="J67" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M67" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10819,23 +10968,23 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J68" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M68" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="30"/>
       <c r="C69" s="29"/>
       <c r="J69" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M69" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10847,13 +10996,13 @@
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J70" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M70" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10865,13 +11014,13 @@
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J71" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M71" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10883,33 +11032,33 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J72" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M72" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="30"/>
       <c r="C73" s="36"/>
       <c r="J73" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M73" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="30"/>
       <c r="C74" s="36"/>
       <c r="J74" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M74" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10921,13 +11070,13 @@
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J75" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M75" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10939,26 +11088,26 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J76" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K76" s="73" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M76" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="30"/>
       <c r="C77" s="36"/>
       <c r="J77" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M77" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10970,48 +11119,48 @@
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="J78" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M78" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="31"/>
       <c r="C79" s="36"/>
       <c r="D79" s="28" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J79" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M79" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="31"/>
       <c r="C80" s="36"/>
       <c r="D80" s="28" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="J80" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M80" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="28"/>
       <c r="J81" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M81" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11019,16 +11168,16 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J82" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K82" s="70" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M82" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11036,14 +11185,14 @@
         <v>0.13541666666666666</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J83" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K83" s="53"/>
       <c r="M83" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11051,21 +11200,21 @@
         <v>0.13680555555555554</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J84" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M84" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J85" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M85" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11073,13 +11222,13 @@
         <v>0.1423611111111111</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J86" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M86" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11087,18 +11236,18 @@
         <v>0.14305555555555557</v>
       </c>
       <c r="C87" s="63" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D87" s="63"/>
       <c r="E87" s="63"/>
       <c r="J87" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K87" s="73" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M87" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11109,13 +11258,13 @@
         <v>0</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J88" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M88" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11127,30 +11276,30 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J89" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M89" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="30"/>
       <c r="C90" s="37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="J90" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M90" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11162,46 +11311,46 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="J91" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M91" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="30"/>
       <c r="C92" s="29"/>
       <c r="D92" s="28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J92" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M92" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="30"/>
       <c r="C93" s="37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
       <c r="J93" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M93" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N93" s="73" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11213,59 +11362,59 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J94" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M94" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="30"/>
       <c r="C95" s="29"/>
       <c r="D95" s="28" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J95" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M95" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="30"/>
       <c r="C96" s="29"/>
       <c r="D96" s="28" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="J96" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M96" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="30"/>
       <c r="C97" s="37" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
       <c r="J97" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M97" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N97" s="73" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11277,59 +11426,59 @@
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J98" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M98" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="30"/>
       <c r="C99" s="29"/>
       <c r="D99" s="28" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J99" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M99" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="30"/>
       <c r="C100" s="29"/>
       <c r="D100" s="28" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J100" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M100" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="30"/>
       <c r="C101" s="37" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38"/>
       <c r="J101" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M101" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N101" s="73" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11341,46 +11490,46 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J102" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M102" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="30"/>
       <c r="C103" s="29"/>
       <c r="D103" s="28" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J103" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M103" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="30"/>
       <c r="C104" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38"/>
       <c r="J104" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M104" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N104" s="36" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11392,29 +11541,29 @@
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J105" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M105" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N105" s="73" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="30"/>
       <c r="C106" s="36"/>
       <c r="J106" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K106" s="69" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M106" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11426,19 +11575,19 @@
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J107" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K107" s="70" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M107" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N107" s="73" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11450,39 +11599,39 @@
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J108" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K108" s="53"/>
       <c r="M108" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="30" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J109" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M109" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J110" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M110" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11490,30 +11639,30 @@
         <v>0.18333333333333335</v>
       </c>
       <c r="C111" s="64" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D111" s="64"/>
       <c r="E111" s="64"/>
       <c r="J111" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M111" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="31"/>
       <c r="C112" s="32" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D112" s="33"/>
       <c r="E112" s="34"/>
       <c r="F112" s="33"/>
       <c r="J112" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M112" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11524,16 +11673,16 @@
         <v>0</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J113" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="K113" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="K113" s="70" t="s">
-        <v>277</v>
-      </c>
       <c r="M113" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11545,43 +11694,43 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J114" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K114" s="53"/>
       <c r="M114" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="30"/>
       <c r="C115" s="36"/>
       <c r="D115" s="28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J115" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M115" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="30"/>
       <c r="C116" s="36"/>
       <c r="D116" s="28" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="J116" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K116" s="73" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M116" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11593,19 +11742,19 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J117" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K117" s="73" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M117" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N117" s="73" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11617,16 +11766,16 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="J118" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M118" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N118" s="36" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11638,54 +11787,54 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J119" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M119" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="30"/>
       <c r="C120" s="36"/>
       <c r="D120" s="28" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J120" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M120" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="30"/>
       <c r="C121" s="32" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D121" s="33"/>
       <c r="E121" s="34"/>
       <c r="F121" s="33"/>
       <c r="J121" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M121" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="30"/>
       <c r="C122" s="36"/>
       <c r="D122" s="38" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J122" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M122" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11697,13 +11846,13 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J123" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M123" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11715,13 +11864,13 @@
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J124" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M124" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11733,23 +11882,23 @@
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J125" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M125" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="30"/>
       <c r="C126" s="29"/>
       <c r="J126" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M126" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11761,16 +11910,16 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F127" s="28" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J127" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M127" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11782,16 +11931,16 @@
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="J128" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M128" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N128" s="73" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11803,32 +11952,32 @@
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J129" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K129" s="73" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M129" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N129" s="73" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="130" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="30"/>
       <c r="C130" s="36"/>
       <c r="D130" s="38" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J130" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M130" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11840,13 +11989,13 @@
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="J131" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M131" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11858,13 +12007,13 @@
         <v>3.6111111111111115E-2</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J132" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M132" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11876,23 +12025,23 @@
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J133" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M133" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="30"/>
       <c r="C134" s="29"/>
       <c r="J134" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M134" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11904,16 +12053,16 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F135" s="28" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J135" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M135" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11925,13 +12074,13 @@
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="J136" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M136" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11943,31 +12092,31 @@
         <v>4.3750000000000004E-2</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J137" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K137" s="73" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M137" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="30"/>
       <c r="C138" s="32" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D138" s="33"/>
       <c r="E138" s="34"/>
       <c r="F138" s="33"/>
       <c r="J138" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M138" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11979,16 +12128,16 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J139" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K139" s="73" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M139" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12000,23 +12149,23 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="J140" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M140" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="30"/>
       <c r="C141" s="36"/>
       <c r="J141" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M141" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12028,16 +12177,16 @@
         <v>5.347222222222222E-2</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J142" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K142" s="73" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M142" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12049,23 +12198,23 @@
         <v>5.6944444444444443E-2</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="J143" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M143" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="30"/>
       <c r="C144" s="36"/>
       <c r="J144" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M144" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12077,16 +12226,16 @@
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J145" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K145" s="73" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M145" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12098,23 +12247,23 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="J146" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M146" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="30"/>
       <c r="C147" s="36"/>
       <c r="J147" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M147" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12126,16 +12275,16 @@
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J148" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K148" s="73" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M148" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12147,56 +12296,56 @@
         <v>6.805555555555555E-2</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="J149" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K149" s="69" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M149" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N149" s="73" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="31"/>
       <c r="C150" s="36"/>
       <c r="D150" s="28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J150" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M150" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N150" s="73" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="31"/>
       <c r="C151" s="36"/>
       <c r="D151" s="28" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J151" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M151" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J152" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M152" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12204,16 +12353,16 @@
         <v>0.25694444444444448</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J153" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K153" s="70" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M153" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="154" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12221,14 +12370,14 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J154" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K154" s="53"/>
       <c r="M154" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12236,21 +12385,21 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J155" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M155" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J156" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M156" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="157" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12258,13 +12407,13 @@
         <v>0.26874999999999999</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J157" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M157" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="158" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12272,15 +12421,15 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="C158" s="63" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D158" s="63"/>
       <c r="E158" s="63"/>
       <c r="J158" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M158" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="159" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12290,17 +12439,17 @@
       <c r="C159" s="29">
         <v>0</v>
       </c>
-      <c r="D159" s="35" t="s">
-        <v>214</v>
+      <c r="D159" s="28" t="s">
+        <v>312</v>
       </c>
       <c r="E159" s="35"/>
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
       <c r="J159" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M159" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="160" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12311,17 +12460,17 @@
       <c r="C160" s="29">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D160" s="35" t="s">
-        <v>218</v>
+      <c r="D160" s="28" t="s">
+        <v>313</v>
       </c>
       <c r="E160" s="35"/>
       <c r="G160" s="35"/>
       <c r="H160" s="35"/>
       <c r="J160" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M160" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12333,18 +12482,18 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F161" s="35" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G161" s="35"/>
       <c r="H161" s="35"/>
       <c r="J161" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M161" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12356,10 +12505,10 @@
       <c r="G162" s="35"/>
       <c r="H162" s="35"/>
       <c r="J162" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M162" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12371,17 +12520,17 @@
         <v>6.9444444444444449E-3</v>
       </c>
       <c r="D163" s="41" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E163" s="35"/>
       <c r="F163" s="35"/>
       <c r="G163" s="35"/>
       <c r="H163" s="35"/>
       <c r="J163" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M163" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12393,10 +12542,10 @@
       <c r="G164" s="35"/>
       <c r="H164" s="35"/>
       <c r="J164" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M164" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12408,10 +12557,10 @@
       <c r="G165" s="35"/>
       <c r="H165" s="35"/>
       <c r="J165" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M165" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="166" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12423,17 +12572,17 @@
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="D166" s="42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E166" s="35"/>
       <c r="F166" s="35"/>
       <c r="G166" s="35"/>
       <c r="H166" s="35"/>
       <c r="J166" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M166" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12445,10 +12594,10 @@
       <c r="G167" s="35"/>
       <c r="H167" s="35"/>
       <c r="J167" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M167" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12462,15 +12611,15 @@
       <c r="D168" s="35"/>
       <c r="E168" s="35"/>
       <c r="F168" s="35" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G168" s="35"/>
       <c r="H168" s="35"/>
       <c r="J168" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M168" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12482,21 +12631,21 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="D169" s="44" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E169" s="41" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F169" s="35"/>
       <c r="G169" s="45" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H169" s="45"/>
       <c r="J169" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M169" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12510,15 +12659,15 @@
       <c r="D170" s="35"/>
       <c r="E170" s="35"/>
       <c r="F170" s="35" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G170" s="35"/>
       <c r="H170" s="35"/>
       <c r="J170" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M170" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="171" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12530,10 +12679,10 @@
       <c r="G171" s="35"/>
       <c r="H171" s="35"/>
       <c r="J171" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M171" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="172" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12547,15 +12696,15 @@
       <c r="D172" s="35"/>
       <c r="E172" s="35"/>
       <c r="F172" s="35" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G172" s="35"/>
       <c r="H172" s="35"/>
       <c r="J172" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M172" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="173" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12567,19 +12716,19 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="D173" s="47" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E173" s="42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F173" s="35"/>
       <c r="G173" s="35"/>
       <c r="H173" s="35"/>
       <c r="J173" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M173" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="174" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12593,15 +12742,15 @@
       <c r="D174" s="35"/>
       <c r="E174" s="35"/>
       <c r="F174" s="35" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G174" s="35"/>
       <c r="H174" s="35"/>
       <c r="J174" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M174" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12613,10 +12762,10 @@
       <c r="G175" s="35"/>
       <c r="H175" s="35"/>
       <c r="J175" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M175" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="176" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12630,15 +12779,15 @@
       <c r="D176" s="35"/>
       <c r="E176" s="35"/>
       <c r="F176" s="35" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G176" s="35"/>
       <c r="H176" s="35"/>
       <c r="J176" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M176" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="177" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12651,16 +12800,16 @@
       </c>
       <c r="D177" s="35"/>
       <c r="E177" s="44" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F177" s="35"/>
       <c r="G177" s="35"/>
       <c r="H177" s="35"/>
       <c r="J177" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M177" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="178" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12674,18 +12823,18 @@
       <c r="D178" s="35"/>
       <c r="E178" s="35"/>
       <c r="F178" s="35" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G178" s="35"/>
       <c r="H178" s="35"/>
       <c r="J178" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K178" s="73" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M178" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12697,10 +12846,10 @@
       <c r="G179" s="35"/>
       <c r="H179" s="35"/>
       <c r="J179" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M179" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="180" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12714,15 +12863,15 @@
       <c r="D180" s="35"/>
       <c r="E180" s="35"/>
       <c r="F180" s="35" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="35"/>
       <c r="J180" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M180" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12735,16 +12884,16 @@
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="47" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="J181" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M181" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12758,25 +12907,25 @@
       <c r="D182" s="35"/>
       <c r="E182" s="35"/>
       <c r="F182" s="35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
       <c r="J182" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M182" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="30"/>
       <c r="C183" s="29"/>
       <c r="J183" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M183" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12788,18 +12937,18 @@
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E184" s="35"/>
       <c r="F184" s="28" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G184" s="35"/>
       <c r="J184" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M184" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="185" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12810,10 +12959,10 @@
       <c r="F185" s="35"/>
       <c r="H185" s="35"/>
       <c r="J185" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M185" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12825,17 +12974,17 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E186" s="35"/>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
       <c r="H186" s="35"/>
       <c r="J186" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M186" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="187" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12847,15 +12996,15 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G187" s="35"/>
       <c r="H187" s="35"/>
       <c r="J187" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M187" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="188" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12867,13 +13016,13 @@
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J188" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M188" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="189" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12885,36 +13034,36 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J189" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M189" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="190" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="30"/>
       <c r="C190" s="29"/>
       <c r="D190" s="35" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J190" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M190" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="191" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="30"/>
       <c r="C191" s="36"/>
       <c r="J191" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M191" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="192" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12926,16 +13075,16 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E192" s="35"/>
       <c r="F192" s="35"/>
       <c r="H192" s="35"/>
       <c r="J192" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M192" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="193" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12947,22 +13096,22 @@
         <v>4.027777777777778E-2</v>
       </c>
       <c r="D193" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E193" s="35"/>
       <c r="F193" s="35"/>
       <c r="G193" s="45" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H193" s="45"/>
       <c r="J193" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K193" s="70" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M193" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="194" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12974,29 +13123,29 @@
         <v>4.3750000000000004E-2</v>
       </c>
       <c r="D194" s="28" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E194" s="35"/>
       <c r="F194" s="35"/>
       <c r="G194" s="35"/>
       <c r="H194" s="35"/>
       <c r="J194" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K194" s="53"/>
       <c r="M194" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N194" s="73" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="195" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J195" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M195" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13004,16 +13153,16 @@
         <v>0.31944444444444448</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J196" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M196" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N196" s="36" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="197" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13021,16 +13170,16 @@
         <v>0.32291666666666663</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J197" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M197" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N197" s="36" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="198" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13038,22 +13187,22 @@
         <v>0.32361111111111113</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J198" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M198" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="199" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="29"/>
       <c r="J199" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M199" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="200" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13061,16 +13210,16 @@
         <v>0.32777777777777778</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J200" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K200" s="70" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M200" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13078,14 +13227,14 @@
         <v>0.33124999999999999</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J201" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K201" s="53"/>
       <c r="M201" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="202" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13093,22 +13242,22 @@
         <v>0.33263888888888887</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J202" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M202" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="29"/>
       <c r="J203" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M203" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13116,13 +13265,13 @@
         <v>0.33611111111111108</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J204" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M204" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="205" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13130,13 +13279,13 @@
         <v>0.33958333333333329</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J205" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M205" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="206" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13144,22 +13293,22 @@
         <v>0.34027777777777779</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J206" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M206" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="207" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="29"/>
       <c r="J207" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M207" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="208" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13167,19 +13316,19 @@
         <v>0.34444444444444444</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J208" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K208" s="70" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M208" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N208" s="73" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="209" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13187,26 +13336,26 @@
         <v>0.34791666666666671</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J209" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K209" s="53"/>
       <c r="M209" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N209" s="73" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="210" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="29"/>
       <c r="J210" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M210" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="211" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13214,16 +13363,16 @@
         <v>0.35138888888888886</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J211" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K211" s="70" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M211" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="212" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13231,23 +13380,23 @@
         <v>0.35486111111111113</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J212" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K212" s="53"/>
       <c r="M212" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="213" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="29"/>
       <c r="J213" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M213" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="214" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13255,16 +13404,16 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J214" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K214" s="70" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M214" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="215" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13272,23 +13421,23 @@
         <v>0.36180555555555555</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J215" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K215" s="53"/>
       <c r="M215" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="216" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="29"/>
       <c r="J216" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M216" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="217" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13296,16 +13445,16 @@
         <v>0.36527777777777776</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="J217" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K217" s="36" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M217" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="218" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13313,24 +13462,24 @@
         <v>0.37222222222222218</v>
       </c>
       <c r="C218" s="50" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J218" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M218" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N218" s="73" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="219" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J219" s="74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M219" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
